--- a/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-38,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-26,13%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,63%</t>
+          <t>-11,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>-9,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-22,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>87,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 2,62</t>
+          <t>-7,68; 5,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,42</t>
+          <t>-5,46; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,89</t>
+          <t>-5,77; 1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 9,55</t>
+          <t>-1,83; 13,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,07; 38,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 23,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,85; 46,04</t>
+          <t>-73,7; 170,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 111,16</t>
+          <t>-52,19; 95,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-63,46; 43,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-24,45; 293,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-34,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-28,66%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>-44,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-32,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,0</t>
+          <t>-6,9; 4,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,86</t>
+          <t>-10,29; -0,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,66</t>
+          <t>-5,14; 0,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 2,67</t>
+          <t>-3,27; 4,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 65,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 19,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-53,18; 12,52</t>
+          <t>-52,21; 70,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,55; 40,79</t>
+          <t>-72,42; 0,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-56,18; 5,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-41,4; 109,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-28,42%</t>
+          <t>11,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,22%</t>
+          <t>-36,85%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-28,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-26,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,48</t>
+          <t>-3,63; 3,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,23</t>
+          <t>-4,17; 0,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 1,31</t>
+          <t>-4,29; 1,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 2,78</t>
+          <t>-10,21; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 145,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 59,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 32,71</t>
+          <t>-50,92; 125,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,51; 87,84</t>
+          <t>-69,47; 44,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-59,61; 26,2</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-73,84; 52,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,67%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-27,93%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>-8,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,38</t>
+          <t>-1,89; 5,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 0,05</t>
+          <t>-4,99; 3,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; -0,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,2</t>
+          <t>-3,01; 4,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,8; 38,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; -0,94</t>
+          <t>-24,15; 116,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 42,61</t>
+          <t>-58,09; 80,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-45,48; 138,94</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-29,68%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-29,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 2,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; -0,25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; -0,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 3,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-22,53; 47,26</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-51,5; -3,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-48,56; -5,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; 63,12</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_10_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,8</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-11,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-22,86%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>87,93%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>-1.926213720894673</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.2163852560585072</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.227530679313453</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.349461772942348</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-0.2458783342953889</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.0301842379943162</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1987192194146982</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.036329691901387</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 5,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,46; 4,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 1,84</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 13,28</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-73,7; 170,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-52,19; 95,11</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-63,46; 43,57</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-24,45; 293,33</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-11.45558546311434</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.856513750797016</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.211665534480565</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5012725504638506</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.8239022817514948</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4825504416330911</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6154490600454093</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1816503806646116</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.573962722887077</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.949309711032924</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.041242262413651</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.7570595129189</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>1.317448472929564</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.128053682463108</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5132379995642505</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.370808010240778</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,43</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-44,38%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-32,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,5%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,9; 4,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,29; -0,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 0,32</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 4,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-52,21; 70,54</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-72,42; 0,23</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-56,18; 5,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; 109,45</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>0.1082946628719716</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.571810570975278</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.135641430244217</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6742824798582445</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.0116301798168879</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4297771664650971</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.293124044625192</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1125290311561793</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>11,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-36,85%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-28,56%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-26,94%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.06271106939541</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.307946233299164</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.792899416710119</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.287374505787819</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.5148683417995871</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7126009465548424</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5445184084303918</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.4144740362658582</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 3,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; 0,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,29; 1,01</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,21; 2,19</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-50,92; 125,92</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-69,47; 44,01</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-59,61; 26,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-73,84; 52,26</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.612414066720696</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.08462204015828179</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6051971877109628</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.865308439756668</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.6494542528215846</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.02028943455505071</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1062297087347818</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.13411244352517</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>26,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-8,31%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>14,95%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.935129056274308</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.486587686468533</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.539925836700402</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.887237637806833</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.2009645623676025</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3638493002471405</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2789564872134702</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2599160712495335</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 5,09</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 3,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 4,38</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-24,15; 116,0</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-58,09; 80,14</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-45,48; 138,94</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.991270433080163</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.064945461516919</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.206134219650201</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-10.06782502298403</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.4656101958886599</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6915885889753026</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.5982019119833492</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7359781905341695</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.252546183053897</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9066790922434262</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.12113501451068</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.321940497421892</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>1.408192228444828</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.4486422063451568</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.295798796416415</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.5346617059629245</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-29,68%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-29,56%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 2,73</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; -0,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; -0,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 3,23</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-22,53; 47,26</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-51,5; -3,96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-48,56; -5,78</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-21,12; 63,12</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.05804211512533963</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.194021241792732</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.777911047159852</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.431859463852492</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.007887825257808911</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3275456817176985</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2737177409929534</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2153231471766054</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.542068792594035</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.953327779638746</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.593786295987153</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.957367020948431</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.3869154520808454</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5702896539974212</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.469859632283936</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2540086992922599</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.977053976565801</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.1915843357136137</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.1635255688688139</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.233394790492977</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.5476283027939866</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.03784248149362297</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.02610286746465828</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8066404224345322</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
